--- a/T25/T25_RFseq_mastermixcockatils.xlsx
+++ b/T25/T25_RFseq_mastermixcockatils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/RFseq_projects/T25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175E9FDF-3EB6-1444-915B-B4F9F8DDCEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1775F1BE-2EF5-3841-B8BA-80A57DD89178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12620" yWindow="11400" windowWidth="27460" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>Master Mix 1</t>
   </si>
@@ -931,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -953,8 +953,8 @@
         <v>46</v>
       </c>
       <c r="E1" s="5">
-        <f xml:space="preserve"> 624*1.25</f>
-        <v>780</v>
+        <f xml:space="preserve"> 605*1.25</f>
+        <v>756.25</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -977,11 +977,11 @@
       </c>
       <c r="C3" s="22">
         <f>1.15*E1</f>
-        <v>896.99999999999989</v>
+        <v>869.68749999999989</v>
       </c>
       <c r="D3">
         <f>C3/2</f>
-        <v>448.49999999999994</v>
+        <v>434.84374999999994</v>
       </c>
       <c r="E3" t="s">
         <v>47</v>
@@ -996,11 +996,11 @@
       </c>
       <c r="C4" s="23">
         <f>0.6*E1</f>
-        <v>468</v>
+        <v>453.75</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D8" si="0">C4/2</f>
-        <v>234</v>
+        <v>226.875</v>
       </c>
       <c r="E4" t="s">
         <v>47</v>
@@ -1015,11 +1015,11 @@
       </c>
       <c r="C5" s="23">
         <f>0.6 * E1</f>
-        <v>468</v>
+        <v>453.75</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>226.875</v>
       </c>
       <c r="E5" t="s">
         <v>47</v>
@@ -1034,11 +1034,11 @@
       </c>
       <c r="C6" s="23">
         <f>0.25*E1</f>
-        <v>195</v>
+        <v>189.0625</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>94.53125</v>
       </c>
       <c r="E6" t="s">
         <v>47</v>
@@ -1053,11 +1053,11 @@
       </c>
       <c r="C7" s="23">
         <f>0.12*E1</f>
-        <v>93.6</v>
+        <v>90.75</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>46.8</v>
+        <v>45.375</v>
       </c>
       <c r="E7" t="s">
         <v>47</v>
@@ -1072,11 +1072,11 @@
       </c>
       <c r="C8" s="24">
         <f>0.28*E1</f>
-        <v>218.40000000000003</v>
+        <v>211.75000000000003</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>109.20000000000002</v>
+        <v>105.87500000000001</v>
       </c>
       <c r="E8" t="s">
         <v>47</v>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="C10" s="25">
         <f>SUM(C3:C9)</f>
-        <v>2340</v>
+        <v>2268.75</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="C11" s="25">
         <f>C10/12</f>
-        <v>195</v>
+        <v>189.0625</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C15" s="23">
         <f>B15*E1</f>
-        <v>780</v>
+        <v>756.25</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C16" s="23">
         <f>B16*E1</f>
-        <v>56.16</v>
+        <v>54.449999999999996</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C17" s="23">
         <f>B17*E1</f>
-        <v>78</v>
+        <v>75.625</v>
       </c>
       <c r="D17" t="s">
         <v>45</v>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C18" s="23">
         <f>B18*E1</f>
-        <v>39</v>
+        <v>37.8125</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>45</v>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C19" s="23">
         <f>B19*E1</f>
-        <v>39</v>
+        <v>37.8125</v>
       </c>
       <c r="D19" t="s">
         <v>45</v>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C20" s="24">
         <f>B20*E1</f>
-        <v>130.65</v>
+        <v>126.67187500000001</v>
       </c>
       <c r="D20" t="s">
         <v>45</v>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C22" s="25">
         <f>SUM(C15:C20)</f>
-        <v>1122.81</v>
+        <v>1088.621875</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="C23" s="25">
         <f>C22/12</f>
-        <v>93.567499999999995</v>
+        <v>90.718489583333337</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -1276,10 +1276,7 @@
       </c>
       <c r="C29" s="23">
         <f>B29*E1</f>
-        <v>7542.6</v>
-      </c>
-      <c r="D29" t="s">
-        <v>45</v>
+        <v>7312.9375</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1291,10 +1288,7 @@
       </c>
       <c r="C30" s="23">
         <f>4*E1</f>
-        <v>3120</v>
-      </c>
-      <c r="D30" t="s">
-        <v>45</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1306,10 +1300,7 @@
       </c>
       <c r="C31" s="23">
         <f>B31*E1</f>
-        <v>312</v>
-      </c>
-      <c r="D31" t="s">
-        <v>45</v>
+        <v>302.5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1321,10 +1312,7 @@
       </c>
       <c r="C32" s="23">
         <f>B32*E1</f>
-        <v>312</v>
-      </c>
-      <c r="D32" t="s">
-        <v>45</v>
+        <v>302.5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1336,11 +1324,9 @@
       </c>
       <c r="C33" s="23">
         <f>B33*E1</f>
-        <v>1037.4000000000001</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>45</v>
-      </c>
+        <v>1005.8125</v>
+      </c>
+      <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
@@ -1351,7 +1337,7 @@
       </c>
       <c r="C34" s="23">
         <f>B34*E1</f>
-        <v>156</v>
+        <v>151.25</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1363,7 +1349,7 @@
       </c>
       <c r="C35" s="23">
         <f>B35*E1</f>
-        <v>117</v>
+        <v>113.4375</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1384,7 +1370,7 @@
       </c>
       <c r="C38" s="25">
         <f>SUM(C29:C37)</f>
-        <v>12597</v>
+        <v>12213.4375</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1427,10 +1413,7 @@
       </c>
       <c r="C44" s="23">
         <f>E$1*B44</f>
-        <v>331.5</v>
-      </c>
-      <c r="D44" t="s">
-        <v>45</v>
+        <v>321.40625</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1442,10 +1425,7 @@
       </c>
       <c r="C45" s="23">
         <f>E$1*B45</f>
-        <v>312</v>
-      </c>
-      <c r="D45" t="s">
-        <v>45</v>
+        <v>302.5</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1457,10 +1437,7 @@
       </c>
       <c r="C46" s="23">
         <f>E$1*B46</f>
-        <v>1037.4000000000001</v>
-      </c>
-      <c r="D46" t="s">
-        <v>45</v>
+        <v>1005.8125</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1469,7 +1446,7 @@
       </c>
       <c r="C47" s="25">
         <f>SUM(C44:C46)</f>
-        <v>1680.9</v>
+        <v>1629.71875</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1481,12 +1458,12 @@
       </c>
       <c r="C48" s="20">
         <f>C47/12</f>
-        <v>140.07500000000002</v>
+        <v>135.80989583333334</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2">
         <f>C48 * (4/7)</f>
-        <v>80.042857142857144</v>
+        <v>77.605654761904759</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1508,7 +1485,7 @@
       </c>
       <c r="B53" s="15">
         <f>C3+C17</f>
-        <v>974.99999999999989</v>
+        <v>945.31249999999989</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>36</v>
@@ -1529,7 +1506,7 @@
       </c>
       <c r="B54" s="15">
         <f>C18+C4</f>
-        <v>507</v>
+        <v>491.5625</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>29</v>
@@ -1548,7 +1525,7 @@
       </c>
       <c r="B55" s="15">
         <f>C5+C19</f>
-        <v>507</v>
+        <v>491.5625</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>30</v>
@@ -1567,7 +1544,7 @@
       </c>
       <c r="B56" s="15">
         <f>C29+C16+C6</f>
-        <v>7793.76</v>
+        <v>7556.45</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>31</v>
@@ -1586,7 +1563,7 @@
       </c>
       <c r="B57" s="15">
         <f>C7</f>
-        <v>93.6</v>
+        <v>90.75</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>32</v>
@@ -1605,7 +1582,7 @@
       </c>
       <c r="B58" s="15">
         <f>C8</f>
-        <v>218.40000000000003</v>
+        <v>211.75000000000003</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>33</v>
@@ -1624,7 +1601,7 @@
       </c>
       <c r="B59" s="15">
         <f>C15</f>
-        <v>780</v>
+        <v>756.25</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>34</v>
@@ -1643,7 +1620,7 @@
       </c>
       <c r="B60" s="15">
         <f>C20</f>
-        <v>130.65</v>
+        <v>126.67187500000001</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>42</v>
@@ -1661,7 +1638,7 @@
       </c>
       <c r="B61" s="15">
         <f>C30+C44</f>
-        <v>3451.5</v>
+        <v>3346.40625</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>43</v>
@@ -1682,7 +1659,7 @@
       </c>
       <c r="B62" s="15">
         <f>C31+C45</f>
-        <v>624</v>
+        <v>605</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1691,7 +1668,7 @@
       </c>
       <c r="B63" s="15">
         <f>C32</f>
-        <v>312</v>
+        <v>302.5</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1700,7 +1677,7 @@
       </c>
       <c r="B64" s="15">
         <f>C33+C46</f>
-        <v>2074.8000000000002</v>
+        <v>2011.625</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1709,7 +1686,7 @@
       </c>
       <c r="B65" s="15">
         <f>C34</f>
-        <v>156</v>
+        <v>151.25</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1718,7 +1695,7 @@
       </c>
       <c r="B66" s="15">
         <f>C35</f>
-        <v>117</v>
+        <v>113.4375</v>
       </c>
     </row>
   </sheetData>

--- a/T25/T25_RFseq_mastermixcockatils.xlsx
+++ b/T25/T25_RFseq_mastermixcockatils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/RFseq_projects/T25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1775F1BE-2EF5-3841-B8BA-80A57DD89178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706A973D-C0A3-8F4B-9AD2-798EE857B77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12620" yWindow="11400" windowWidth="27460" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>Master Mix 1</t>
   </si>
@@ -176,12 +176,6 @@
   </si>
   <si>
     <t>Adjusted Sample Number:</t>
-  </si>
-  <si>
-    <t>xx</t>
-  </si>
-  <si>
-    <t>x/2</t>
   </si>
 </sst>
 </file>
@@ -931,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -953,8 +947,8 @@
         <v>46</v>
       </c>
       <c r="E1" s="5">
-        <f xml:space="preserve"> 605*1.25</f>
-        <v>756.25</v>
+        <f xml:space="preserve"> 475*1.25</f>
+        <v>593.75</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -964,9 +958,6 @@
       <c r="C2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -977,14 +968,10 @@
       </c>
       <c r="C3" s="22">
         <f>1.15*E1</f>
-        <v>869.68749999999989</v>
-      </c>
-      <c r="D3">
-        <f>C3/2</f>
-        <v>434.84374999999994</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
+        <v>682.8125</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -996,14 +983,10 @@
       </c>
       <c r="C4" s="23">
         <f>0.6*E1</f>
-        <v>453.75</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D8" si="0">C4/2</f>
-        <v>226.875</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
+        <v>356.25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1015,14 +998,10 @@
       </c>
       <c r="C5" s="23">
         <f>0.6 * E1</f>
-        <v>453.75</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>226.875</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
+        <v>356.25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1034,14 +1013,10 @@
       </c>
       <c r="C6" s="23">
         <f>0.25*E1</f>
-        <v>189.0625</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>94.53125</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
+        <v>148.4375</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1053,14 +1028,10 @@
       </c>
       <c r="C7" s="23">
         <f>0.12*E1</f>
-        <v>90.75</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>45.375</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
+        <v>71.25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1072,14 +1043,10 @@
       </c>
       <c r="C8" s="24">
         <f>0.28*E1</f>
-        <v>211.75000000000003</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>105.87500000000001</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
+        <v>166.25000000000003</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1091,7 +1058,7 @@
       </c>
       <c r="C10" s="25">
         <f>SUM(C3:C9)</f>
-        <v>2268.75</v>
+        <v>1781.25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1100,7 +1067,7 @@
       </c>
       <c r="C11" s="25">
         <f>C10/12</f>
-        <v>189.0625</v>
+        <v>148.4375</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1131,7 +1098,7 @@
       </c>
       <c r="C15" s="23">
         <f>B15*E1</f>
-        <v>756.25</v>
+        <v>593.75</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
@@ -1146,7 +1113,7 @@
       </c>
       <c r="C16" s="23">
         <f>B16*E1</f>
-        <v>54.449999999999996</v>
+        <v>42.75</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
@@ -1161,7 +1128,7 @@
       </c>
       <c r="C17" s="23">
         <f>B17*E1</f>
-        <v>75.625</v>
+        <v>59.375</v>
       </c>
       <c r="D17" t="s">
         <v>45</v>
@@ -1176,11 +1143,9 @@
       </c>
       <c r="C18" s="23">
         <f>B18*E1</f>
-        <v>37.8125</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>29.6875</v>
+      </c>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
@@ -1191,7 +1156,7 @@
       </c>
       <c r="C19" s="23">
         <f>B19*E1</f>
-        <v>37.8125</v>
+        <v>29.6875</v>
       </c>
       <c r="D19" t="s">
         <v>45</v>
@@ -1206,10 +1171,7 @@
       </c>
       <c r="C20" s="24">
         <f>B20*E1</f>
-        <v>126.67187500000001</v>
-      </c>
-      <c r="D20" t="s">
-        <v>45</v>
+        <v>99.453125</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1221,7 +1183,7 @@
       </c>
       <c r="C22" s="25">
         <f>SUM(C15:C20)</f>
-        <v>1088.621875</v>
+        <v>854.703125</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1230,7 +1192,7 @@
       </c>
       <c r="C23" s="25">
         <f>C22/12</f>
-        <v>90.718489583333337</v>
+        <v>71.225260416666671</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -1276,7 +1238,7 @@
       </c>
       <c r="C29" s="23">
         <f>B29*E1</f>
-        <v>7312.9375</v>
+        <v>5741.5625</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1288,7 +1250,7 @@
       </c>
       <c r="C30" s="23">
         <f>4*E1</f>
-        <v>3025</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1300,7 +1262,7 @@
       </c>
       <c r="C31" s="23">
         <f>B31*E1</f>
-        <v>302.5</v>
+        <v>237.5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1312,7 +1274,7 @@
       </c>
       <c r="C32" s="23">
         <f>B32*E1</f>
-        <v>302.5</v>
+        <v>237.5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1324,7 +1286,7 @@
       </c>
       <c r="C33" s="23">
         <f>B33*E1</f>
-        <v>1005.8125</v>
+        <v>789.6875</v>
       </c>
       <c r="D33" s="19"/>
     </row>
@@ -1337,7 +1299,7 @@
       </c>
       <c r="C34" s="23">
         <f>B34*E1</f>
-        <v>151.25</v>
+        <v>118.75</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1349,7 +1311,7 @@
       </c>
       <c r="C35" s="23">
         <f>B35*E1</f>
-        <v>113.4375</v>
+        <v>89.0625</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1370,7 +1332,7 @@
       </c>
       <c r="C38" s="25">
         <f>SUM(C29:C37)</f>
-        <v>12213.4375</v>
+        <v>9589.0625</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1413,7 +1375,7 @@
       </c>
       <c r="C44" s="23">
         <f>E$1*B44</f>
-        <v>321.40625</v>
+        <v>252.34375</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1425,7 +1387,7 @@
       </c>
       <c r="C45" s="23">
         <f>E$1*B45</f>
-        <v>302.5</v>
+        <v>237.5</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1437,7 +1399,7 @@
       </c>
       <c r="C46" s="23">
         <f>E$1*B46</f>
-        <v>1005.8125</v>
+        <v>789.6875</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1446,7 +1408,7 @@
       </c>
       <c r="C47" s="25">
         <f>SUM(C44:C46)</f>
-        <v>1629.71875</v>
+        <v>1279.53125</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1458,12 +1420,12 @@
       </c>
       <c r="C48" s="20">
         <f>C47/12</f>
-        <v>135.80989583333334</v>
+        <v>106.62760416666667</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2">
         <f>C48 * (4/7)</f>
-        <v>77.605654761904759</v>
+        <v>60.930059523809526</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1485,7 +1447,7 @@
       </c>
       <c r="B53" s="15">
         <f>C3+C17</f>
-        <v>945.31249999999989</v>
+        <v>742.1875</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>36</v>
@@ -1506,7 +1468,7 @@
       </c>
       <c r="B54" s="15">
         <f>C18+C4</f>
-        <v>491.5625</v>
+        <v>385.9375</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>29</v>
@@ -1525,7 +1487,7 @@
       </c>
       <c r="B55" s="15">
         <f>C5+C19</f>
-        <v>491.5625</v>
+        <v>385.9375</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>30</v>
@@ -1544,7 +1506,7 @@
       </c>
       <c r="B56" s="15">
         <f>C29+C16+C6</f>
-        <v>7556.45</v>
+        <v>5932.75</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>31</v>
@@ -1563,7 +1525,7 @@
       </c>
       <c r="B57" s="15">
         <f>C7</f>
-        <v>90.75</v>
+        <v>71.25</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>32</v>
@@ -1582,7 +1544,7 @@
       </c>
       <c r="B58" s="15">
         <f>C8</f>
-        <v>211.75000000000003</v>
+        <v>166.25000000000003</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>33</v>
@@ -1601,7 +1563,7 @@
       </c>
       <c r="B59" s="15">
         <f>C15</f>
-        <v>756.25</v>
+        <v>593.75</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>34</v>
@@ -1620,7 +1582,7 @@
       </c>
       <c r="B60" s="15">
         <f>C20</f>
-        <v>126.67187500000001</v>
+        <v>99.453125</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>42</v>
@@ -1638,7 +1600,7 @@
       </c>
       <c r="B61" s="15">
         <f>C30+C44</f>
-        <v>3346.40625</v>
+        <v>2627.34375</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>43</v>
@@ -1659,7 +1621,7 @@
       </c>
       <c r="B62" s="15">
         <f>C31+C45</f>
-        <v>605</v>
+        <v>475</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1668,7 +1630,7 @@
       </c>
       <c r="B63" s="15">
         <f>C32</f>
-        <v>302.5</v>
+        <v>237.5</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1677,7 +1639,7 @@
       </c>
       <c r="B64" s="15">
         <f>C33+C46</f>
-        <v>2011.625</v>
+        <v>1579.375</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1686,7 +1648,7 @@
       </c>
       <c r="B65" s="15">
         <f>C34</f>
-        <v>151.25</v>
+        <v>118.75</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1695,7 +1657,7 @@
       </c>
       <c r="B66" s="15">
         <f>C35</f>
-        <v>113.4375</v>
+        <v>89.0625</v>
       </c>
     </row>
   </sheetData>

--- a/T25/T25_RFseq_mastermixcockatils.xlsx
+++ b/T25/T25_RFseq_mastermixcockatils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/RFseq_projects/T25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706A973D-C0A3-8F4B-9AD2-798EE857B77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEDE88D-2B8F-8A4D-98B5-68B8A67D6F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12620" yWindow="11400" windowWidth="27460" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>Master Mix 1</t>
   </si>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1145,7 +1145,9 @@
         <f>B18*E1</f>
         <v>29.6875</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
@@ -1172,6 +1174,9 @@
       <c r="C20" s="24">
         <f>B20*E1</f>
         <v>99.453125</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">

--- a/T25/T25_RFseq_mastermixcockatils.xlsx
+++ b/T25/T25_RFseq_mastermixcockatils.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10817"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/RFseq_projects/T25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEDE88D-2B8F-8A4D-98B5-68B8A67D6F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19043AF-F549-3E43-9023-4B722194AEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12620" yWindow="11400" windowWidth="27460" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15560" yWindow="4600" windowWidth="27460" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>Master Mix 1</t>
   </si>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -947,8 +947,8 @@
         <v>46</v>
       </c>
       <c r="E1" s="5">
-        <f xml:space="preserve"> 475*1.25</f>
-        <v>593.75</v>
+        <f xml:space="preserve"> 332*1.25</f>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -968,7 +968,7 @@
       </c>
       <c r="C3" s="22">
         <f>1.15*E1</f>
-        <v>682.8125</v>
+        <v>477.24999999999994</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
@@ -983,7 +983,7 @@
       </c>
       <c r="C4" s="23">
         <f>0.6*E1</f>
-        <v>356.25</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
         <v>45</v>
@@ -998,7 +998,7 @@
       </c>
       <c r="C5" s="23">
         <f>0.6 * E1</f>
-        <v>356.25</v>
+        <v>249</v>
       </c>
       <c r="D5" t="s">
         <v>45</v>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="C6" s="23">
         <f>0.25*E1</f>
-        <v>148.4375</v>
+        <v>103.75</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="C7" s="23">
         <f>0.12*E1</f>
-        <v>71.25</v>
+        <v>49.8</v>
       </c>
       <c r="D7" t="s">
         <v>45</v>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C8" s="24">
         <f>0.28*E1</f>
-        <v>166.25000000000003</v>
+        <v>116.20000000000002</v>
       </c>
       <c r="D8" t="s">
         <v>45</v>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C10" s="25">
         <f>SUM(C3:C9)</f>
-        <v>1781.25</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C11" s="25">
         <f>C10/12</f>
-        <v>148.4375</v>
+        <v>103.75</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1098,10 +1098,7 @@
       </c>
       <c r="C15" s="23">
         <f>B15*E1</f>
-        <v>593.75</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1113,10 +1110,7 @@
       </c>
       <c r="C16" s="23">
         <f>B16*E1</f>
-        <v>42.75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
+        <v>29.88</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1128,10 +1122,7 @@
       </c>
       <c r="C17" s="23">
         <f>B17*E1</f>
-        <v>59.375</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1143,11 +1134,9 @@
       </c>
       <c r="C18" s="23">
         <f>B18*E1</f>
-        <v>29.6875</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>20.75</v>
+      </c>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
@@ -1158,10 +1147,7 @@
       </c>
       <c r="C19" s="23">
         <f>B19*E1</f>
-        <v>29.6875</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1173,10 +1159,7 @@
       </c>
       <c r="C20" s="24">
         <f>B20*E1</f>
-        <v>99.453125</v>
-      </c>
-      <c r="D20" t="s">
-        <v>45</v>
+        <v>69.512500000000003</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1188,7 +1171,7 @@
       </c>
       <c r="C22" s="25">
         <f>SUM(C15:C20)</f>
-        <v>854.703125</v>
+        <v>597.39250000000004</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1197,7 +1180,7 @@
       </c>
       <c r="C23" s="25">
         <f>C22/12</f>
-        <v>71.225260416666671</v>
+        <v>49.782708333333339</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -1243,7 +1226,7 @@
       </c>
       <c r="C29" s="23">
         <f>B29*E1</f>
-        <v>5741.5625</v>
+        <v>4013.05</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1255,7 +1238,7 @@
       </c>
       <c r="C30" s="23">
         <f>4*E1</f>
-        <v>2375</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1267,7 +1250,7 @@
       </c>
       <c r="C31" s="23">
         <f>B31*E1</f>
-        <v>237.5</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1279,7 +1262,7 @@
       </c>
       <c r="C32" s="23">
         <f>B32*E1</f>
-        <v>237.5</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1291,7 +1274,7 @@
       </c>
       <c r="C33" s="23">
         <f>B33*E1</f>
-        <v>789.6875</v>
+        <v>551.95000000000005</v>
       </c>
       <c r="D33" s="19"/>
     </row>
@@ -1304,7 +1287,7 @@
       </c>
       <c r="C34" s="23">
         <f>B34*E1</f>
-        <v>118.75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1316,7 +1299,7 @@
       </c>
       <c r="C35" s="23">
         <f>B35*E1</f>
-        <v>89.0625</v>
+        <v>62.25</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1337,7 +1320,7 @@
       </c>
       <c r="C38" s="25">
         <f>SUM(C29:C37)</f>
-        <v>9589.0625</v>
+        <v>6702.25</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1380,7 +1363,7 @@
       </c>
       <c r="C44" s="23">
         <f>E$1*B44</f>
-        <v>252.34375</v>
+        <v>176.375</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1392,7 +1375,7 @@
       </c>
       <c r="C45" s="23">
         <f>E$1*B45</f>
-        <v>237.5</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1404,7 +1387,7 @@
       </c>
       <c r="C46" s="23">
         <f>E$1*B46</f>
-        <v>789.6875</v>
+        <v>551.95000000000005</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1413,7 +1396,7 @@
       </c>
       <c r="C47" s="25">
         <f>SUM(C44:C46)</f>
-        <v>1279.53125</v>
+        <v>894.32500000000005</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1425,12 +1408,12 @@
       </c>
       <c r="C48" s="20">
         <f>C47/12</f>
-        <v>106.62760416666667</v>
+        <v>74.527083333333337</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2">
         <f>C48 * (4/7)</f>
-        <v>60.930059523809526</v>
+        <v>42.586904761904762</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1452,7 +1435,7 @@
       </c>
       <c r="B53" s="15">
         <f>C3+C17</f>
-        <v>742.1875</v>
+        <v>518.75</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>36</v>
@@ -1473,7 +1456,7 @@
       </c>
       <c r="B54" s="15">
         <f>C18+C4</f>
-        <v>385.9375</v>
+        <v>269.75</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>29</v>
@@ -1492,7 +1475,7 @@
       </c>
       <c r="B55" s="15">
         <f>C5+C19</f>
-        <v>385.9375</v>
+        <v>269.75</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>30</v>
@@ -1511,7 +1494,7 @@
       </c>
       <c r="B56" s="15">
         <f>C29+C16+C6</f>
-        <v>5932.75</v>
+        <v>4146.68</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>31</v>
@@ -1530,7 +1513,7 @@
       </c>
       <c r="B57" s="15">
         <f>C7</f>
-        <v>71.25</v>
+        <v>49.8</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>32</v>
@@ -1549,7 +1532,7 @@
       </c>
       <c r="B58" s="15">
         <f>C8</f>
-        <v>166.25000000000003</v>
+        <v>116.20000000000002</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>33</v>
@@ -1568,7 +1551,7 @@
       </c>
       <c r="B59" s="15">
         <f>C15</f>
-        <v>593.75</v>
+        <v>415</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>34</v>
@@ -1587,7 +1570,7 @@
       </c>
       <c r="B60" s="15">
         <f>C20</f>
-        <v>99.453125</v>
+        <v>69.512500000000003</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>42</v>
@@ -1605,7 +1588,7 @@
       </c>
       <c r="B61" s="15">
         <f>C30+C44</f>
-        <v>2627.34375</v>
+        <v>1836.375</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>43</v>
@@ -1626,7 +1609,7 @@
       </c>
       <c r="B62" s="15">
         <f>C31+C45</f>
-        <v>475</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1635,7 +1618,7 @@
       </c>
       <c r="B63" s="15">
         <f>C32</f>
-        <v>237.5</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1644,7 +1627,7 @@
       </c>
       <c r="B64" s="15">
         <f>C33+C46</f>
-        <v>1579.375</v>
+        <v>1103.9000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1653,7 +1636,7 @@
       </c>
       <c r="B65" s="15">
         <f>C34</f>
-        <v>118.75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1662,7 +1645,7 @@
       </c>
       <c r="B66" s="15">
         <f>C35</f>
-        <v>89.0625</v>
+        <v>62.25</v>
       </c>
     </row>
   </sheetData>
